--- a/biology/Histoire de la zoologie et de la botanique/Antoine_Nicolas_Dezallier_d'Argenville/Antoine_Nicolas_Dezallier_d'Argenville.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Antoine_Nicolas_Dezallier_d'Argenville/Antoine_Nicolas_Dezallier_d'Argenville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antoine_Nicolas_Dezallier_d%27Argenville</t>
+          <t>Antoine_Nicolas_Dezallier_d'Argenville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine Nicolas Dezallier d'Argenville est un naturaliste et critique d'art français né à Paris le 27 août 1723 et mort dans la même ville le 26 septembre 1796.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antoine_Nicolas_Dezallier_d%27Argenville</t>
+          <t>Antoine_Nicolas_Dezallier_d'Argenville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fils d'Antoine Joseph Dezallier d'Argenville (1680-1765), également naturaliste et critique d'art, il est l'auteur de plusieurs ouvrages sur l'histoire de l'Art et le jardinage, souvent cités, et généralement publiés sous l'anonymat.
-Principaux ouvrages
-Voyage pittoresque de Paris, ou Indication de tout ce qu'il y a de plus beau dans cette grande ville en peinture, sculpture et architecture, Paris : De Bure l'aîné, 1749, in-12, 277 pp., lire en ligne ; (autres éd. : 1752, lire en ligne, 1755, 1757, 1762, 1765, lire en ligne, 1768, 1770, 1778, lire en ligne, 1779, 1813) ;
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fils d'Antoine Joseph Dezallier d'Argenville (1680-1765), également naturaliste et critique d'art, il est l'auteur de plusieurs ouvrages sur l'histoire de l'Art et le jardinage, souvent cités, et généralement publiés sous l'anonymat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Antoine_Nicolas_Dezallier_d'Argenville</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antoine_Nicolas_Dezallier_d%27Argenville</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Principaux ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Voyage pittoresque de Paris, ou Indication de tout ce qu'il y a de plus beau dans cette grande ville en peinture, sculpture et architecture, Paris : De Bure l'aîné, 1749, in-12, 277 pp., lire en ligne ; (autres éd. : 1752, lire en ligne, 1755, 1757, 1762, 1765, lire en ligne, 1768, 1770, 1778, lire en ligne, 1779, 1813) ;
 Voyage pittoresque des environs de Paris ou description des Maisons royales, châteaux et autres lieux de plaisance situés à quinze lieues aux environs de cette ville, 1755, Paris, de Bure l'aîné, in 12°, 364 pages, lire en ligne , (autres éditions : 1762, 1768, lire en ligne, 1779, lire en ligne ) ;
 La Pratique du jardinage, par M. l'abbé Roger Schabol, ouvrage rédigé après sa mort sur ses mémoires, par M. D***, Paris : Debure père, 1770, 2 vol. in-8°, XXVI-693 pp., fig., pl. gr. (nlle. éd. : 1774)
 La Théorie du jardinage, par M. l'abbé Roger Schabol, ouvrage rédigé après sa mort sur ses mémoires, par M. D***, Paris : Debure père, 1771, in-8°, XXIV-408 pp., fig. (nlle. éd. : 1774)
